--- a/onetime_data(budget_20000).xlsx
+++ b/onetime_data(budget_20000).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alecb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alecb\Documents\GitHub\WPVHSoftwareTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C6D602-D274-4DDA-BDD5-B36829736DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB975AB2-3219-4FE2-893F-3DBB5743BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,26 +702,6 @@
       </c>
       <c r="F14">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>30000</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
